--- a/excel/GDP대비 무역 비율(상품 및 서비스 포함).xlsx
+++ b/excel/GDP대비 무역 비율(상품 및 서비스 포함).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1178,20 +1178,6 @@
         <v>36.9405254256941</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C54" t="n">
-        <v>96.7830615410068</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
